--- a/biology/Zoologie/Arthrodire/Arthrodire.xlsx
+++ b/biology/Zoologie/Arthrodire/Arthrodire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthrodira
 Les arthrodires (Arthrodira) sont un ordre éteint  de poissons placodermes.
@@ -512,7 +524,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les animaux du genre Plourdosteus, trouvés sur le territoire de l'actuel parc national de Miguasha au Canada, étaient des prédateurs bien adaptés avec des mâchoires dépourvues de dents comme telles mais qui avaient des plaques gnathales (du grec gnathos, « mâchoire ») ossifiées à la mâchoire supérieure qui venait s'appuyer sur l'os de la mâchoire inférieure, l'inferognathal. Cet ensemble de plaques avec leurs zones occlusives agissaient comme de véritables ciseaux.
 C'est à l'intérieur des arthrodires que les plus grands prédateurs marins du Dévonien ont existé. Le plus connu étant sans doute le genre Dunkleosteus qui vivait dans les mers chaudes qui recouvraient la région actuelle de l'Ohio.
@@ -544,9 +558,11 @@
           <t>Liste des sous-ordres et familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (21 octobre 2016)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (21 octobre 2016) :
 sous-ordre Actinolepina †
 sous-ordre Brachythoraci Gross, 1932 †
 famille Homostiidae Jaekel, 1903 †
